--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col1a1-Ddr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col1a1-Ddr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H2">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I2">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J2">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.36022704645594</v>
+        <v>3.5147655</v>
       </c>
       <c r="N2">
-        <v>3.36022704645594</v>
+        <v>7.029531</v>
       </c>
       <c r="O2">
-        <v>0.03861304178861933</v>
+        <v>0.03792266694819667</v>
       </c>
       <c r="P2">
-        <v>0.03861304178861933</v>
+        <v>0.0284987807323048</v>
       </c>
       <c r="Q2">
-        <v>91.87047042442205</v>
+        <v>96.7438395478935</v>
       </c>
       <c r="R2">
-        <v>91.87047042442205</v>
+        <v>386.975358191574</v>
       </c>
       <c r="S2">
-        <v>0.0012148775056442</v>
+        <v>0.001110186722913191</v>
       </c>
       <c r="T2">
-        <v>0.0012148775056442</v>
+        <v>0.0005731713420993851</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H3">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I3">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J3">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.2608719277996</v>
+        <v>57.33079666666666</v>
       </c>
       <c r="N3">
-        <v>53.2608719277996</v>
+        <v>171.99239</v>
       </c>
       <c r="O3">
-        <v>0.6120313434223155</v>
+        <v>0.6185723365797188</v>
       </c>
       <c r="P3">
-        <v>0.6120313434223155</v>
+        <v>0.6972831345697248</v>
       </c>
       <c r="Q3">
-        <v>1456.181767354869</v>
+        <v>1578.028859641676</v>
       </c>
       <c r="R3">
-        <v>1456.181767354869</v>
+        <v>9468.17315785006</v>
       </c>
       <c r="S3">
-        <v>0.01925626880014723</v>
+        <v>0.01810871572324503</v>
       </c>
       <c r="T3">
-        <v>0.01925626880014723</v>
+        <v>0.01402385294370006</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H4">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I4">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J4">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.277403546397621</v>
+        <v>0.079775</v>
       </c>
       <c r="N4">
-        <v>0.277403546397621</v>
+        <v>0.239325</v>
       </c>
       <c r="O4">
-        <v>0.003187699694477473</v>
+        <v>0.0008607347362981653</v>
       </c>
       <c r="P4">
-        <v>0.003187699694477473</v>
+        <v>0.0009702597084725632</v>
       </c>
       <c r="Q4">
-        <v>7.584366756357098</v>
+        <v>2.195805040175</v>
       </c>
       <c r="R4">
-        <v>7.584366756357098</v>
+        <v>13.17483024105</v>
       </c>
       <c r="S4">
-        <v>0.0001002942134103247</v>
+        <v>2.519802411295998E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001002942134103247</v>
+        <v>1.951399480960185E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H5">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I5">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J5">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.2567163980931</v>
+        <v>0.3226396666666667</v>
       </c>
       <c r="N5">
-        <v>2.2567163980931</v>
+        <v>0.967919</v>
       </c>
       <c r="O5">
-        <v>0.02593237997906638</v>
+        <v>0.003481130284019571</v>
       </c>
       <c r="P5">
-        <v>0.02593237997906638</v>
+        <v>0.003924089864264305</v>
       </c>
       <c r="Q5">
-        <v>61.69987749071554</v>
+        <v>8.880649404287666</v>
       </c>
       <c r="R5">
-        <v>61.69987749071554</v>
+        <v>53.283896425726</v>
       </c>
       <c r="S5">
-        <v>0.0008159073630317139</v>
+        <v>0.0001019101485485934</v>
       </c>
       <c r="T5">
-        <v>0.0008159073630317139</v>
+        <v>7.892182739837049E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H6">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I6">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J6">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.8678927244893</v>
+        <v>3.562661333333333</v>
       </c>
       <c r="N6">
-        <v>27.8678927244893</v>
+        <v>10.687984</v>
       </c>
       <c r="O6">
-        <v>0.3202355351155214</v>
+        <v>0.03843944046714304</v>
       </c>
       <c r="P6">
-        <v>0.3202355351155214</v>
+        <v>0.04333070193251612</v>
       </c>
       <c r="Q6">
-        <v>761.9236375817115</v>
+        <v>98.06217125878933</v>
       </c>
       <c r="R6">
-        <v>761.9236375817115</v>
+        <v>588.3730275527359</v>
       </c>
       <c r="S6">
-        <v>0.01007553225797525</v>
+        <v>0.00112531527651073</v>
       </c>
       <c r="T6">
-        <v>0.01007553225797525</v>
+        <v>0.0008714729522661973</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>762.489990839008</v>
+        <v>27.524977</v>
       </c>
       <c r="H7">
-        <v>762.489990839008</v>
+        <v>55.049954</v>
       </c>
       <c r="I7">
-        <v>0.8774559148313684</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J7">
-        <v>0.8774559148313684</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.36022704645594</v>
+        <v>27.871807</v>
       </c>
       <c r="N7">
-        <v>3.36022704645594</v>
+        <v>55.743614</v>
       </c>
       <c r="O7">
-        <v>0.03861304178861933</v>
+        <v>0.3007236909846238</v>
       </c>
       <c r="P7">
-        <v>0.03861304178861933</v>
+        <v>0.2259930331927174</v>
       </c>
       <c r="Q7">
-        <v>2562.139489869176</v>
+        <v>767.170846623439</v>
       </c>
       <c r="R7">
-        <v>2562.139489869176</v>
+        <v>3068.683386493756</v>
       </c>
       <c r="S7">
-        <v>0.03388124190705483</v>
+        <v>0.008803691192200149</v>
       </c>
       <c r="T7">
-        <v>0.03388124190705483</v>
+        <v>0.004545202524869735</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H8">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I8">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J8">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.2608719277996</v>
+        <v>3.5147655</v>
       </c>
       <c r="N8">
-        <v>53.2608719277996</v>
+        <v>7.029531</v>
       </c>
       <c r="O8">
-        <v>0.6120313434223155</v>
+        <v>0.03792266694819667</v>
       </c>
       <c r="P8">
-        <v>0.6120313434223155</v>
+        <v>0.0284987807323048</v>
       </c>
       <c r="Q8">
-        <v>40610.8817483055</v>
+        <v>2917.810123870635</v>
       </c>
       <c r="R8">
-        <v>40610.8817483055</v>
+        <v>17506.86074322381</v>
       </c>
       <c r="S8">
-        <v>0.5370305223480992</v>
+        <v>0.03348341428912623</v>
       </c>
       <c r="T8">
-        <v>0.5370305223480992</v>
+        <v>0.02593041302431726</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H9">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I9">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J9">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.277403546397621</v>
+        <v>57.33079666666666</v>
       </c>
       <c r="N9">
-        <v>0.277403546397621</v>
+        <v>171.99239</v>
       </c>
       <c r="O9">
-        <v>0.003187699694477473</v>
+        <v>0.6185723365797188</v>
       </c>
       <c r="P9">
-        <v>0.003187699694477473</v>
+        <v>0.6972831345697248</v>
       </c>
       <c r="Q9">
-        <v>211.5174275514304</v>
+        <v>47593.61013517654</v>
       </c>
       <c r="R9">
-        <v>211.5174275514304</v>
+        <v>428342.4912165889</v>
       </c>
       <c r="S9">
-        <v>0.002797065951625405</v>
+        <v>0.546161846733632</v>
       </c>
       <c r="T9">
-        <v>0.002797065951625405</v>
+        <v>0.6344425694601039</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H10">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I10">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J10">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>2.2567163980931</v>
+        <v>0.079775</v>
       </c>
       <c r="N10">
-        <v>2.2567163980931</v>
+        <v>0.239325</v>
       </c>
       <c r="O10">
-        <v>0.02593237997906638</v>
+        <v>0.0008607347362981653</v>
       </c>
       <c r="P10">
-        <v>0.02593237997906638</v>
+        <v>0.0009702597084725632</v>
       </c>
       <c r="Q10">
-        <v>1720.723665708247</v>
+        <v>66.22584142008333</v>
       </c>
       <c r="R10">
-        <v>1720.723665708247</v>
+        <v>596.03257278075</v>
       </c>
       <c r="S10">
-        <v>0.02275452019828636</v>
+        <v>0.0007599765545994591</v>
       </c>
       <c r="T10">
-        <v>0.02275452019828636</v>
+        <v>0.0008828179429103774</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H11">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I11">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J11">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.8678927244893</v>
+        <v>0.3226396666666667</v>
       </c>
       <c r="N11">
-        <v>27.8678927244893</v>
+        <v>0.967919</v>
       </c>
       <c r="O11">
-        <v>0.3202355351155214</v>
+        <v>0.003481130284019571</v>
       </c>
       <c r="P11">
-        <v>0.3202355351155214</v>
+        <v>0.003924089864264305</v>
       </c>
       <c r="Q11">
-        <v>21248.9892681983</v>
+        <v>267.8418477028544</v>
       </c>
       <c r="R11">
-        <v>21248.9892681983</v>
+        <v>2410.57662932569</v>
       </c>
       <c r="S11">
-        <v>0.2809925644263027</v>
+        <v>0.00307362685365655</v>
       </c>
       <c r="T11">
-        <v>0.2809925644263027</v>
+        <v>0.003570442956163667</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.496919715195398</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H12">
-        <v>0.496919715195398</v>
+        <v>2490.47351</v>
       </c>
       <c r="I12">
-        <v>0.0005718437599616744</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J12">
-        <v>0.0005718437599616744</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.36022704645594</v>
+        <v>3.562661333333333</v>
       </c>
       <c r="N12">
-        <v>3.36022704645594</v>
+        <v>10.687984</v>
       </c>
       <c r="O12">
-        <v>0.03861304178861933</v>
+        <v>0.03843944046714304</v>
       </c>
       <c r="P12">
-        <v>0.03861304178861933</v>
+        <v>0.04333070193251612</v>
       </c>
       <c r="Q12">
-        <v>1.669763066916759</v>
+        <v>2957.571225255982</v>
       </c>
       <c r="R12">
-        <v>1.669763066916759</v>
+        <v>26618.14102730384</v>
       </c>
       <c r="S12">
-        <v>2.208062699996134E-05</v>
+        <v>0.03393969395564252</v>
       </c>
       <c r="T12">
-        <v>2.208062699996134E-05</v>
+        <v>0.03942565151463085</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.496919715195398</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H13">
-        <v>0.496919715195398</v>
+        <v>2490.47351</v>
       </c>
       <c r="I13">
-        <v>0.0005718437599616744</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J13">
-        <v>0.0005718437599616744</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.2608719277996</v>
+        <v>27.871807</v>
       </c>
       <c r="N13">
-        <v>53.2608719277996</v>
+        <v>55.743614</v>
       </c>
       <c r="O13">
-        <v>0.6120313434223155</v>
+        <v>0.3007236909846238</v>
       </c>
       <c r="P13">
-        <v>0.6120313434223155</v>
+        <v>0.2259930331927174</v>
       </c>
       <c r="Q13">
-        <v>26.46637730942075</v>
+        <v>23137.99900311086</v>
       </c>
       <c r="R13">
-        <v>26.46637730942075</v>
+        <v>138827.9940186651</v>
       </c>
       <c r="S13">
-        <v>0.0003499863046370117</v>
+        <v>0.2655207753597128</v>
       </c>
       <c r="T13">
-        <v>0.0003499863046370117</v>
+        <v>0.205626084370083</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.496919715195398</v>
+        <v>1.012325</v>
       </c>
       <c r="H14">
-        <v>0.496919715195398</v>
+        <v>3.036975</v>
       </c>
       <c r="I14">
-        <v>0.0005718437599616744</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J14">
-        <v>0.0005718437599616744</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.277403546397621</v>
+        <v>3.5147655</v>
       </c>
       <c r="N14">
-        <v>0.277403546397621</v>
+        <v>7.029531</v>
       </c>
       <c r="O14">
-        <v>0.003187699694477473</v>
+        <v>0.03792266694819667</v>
       </c>
       <c r="P14">
-        <v>0.003187699694477473</v>
+        <v>0.0284987807323048</v>
       </c>
       <c r="Q14">
-        <v>0.1378472912700992</v>
+        <v>3.558084984787501</v>
       </c>
       <c r="R14">
-        <v>0.1378472912700992</v>
+        <v>21.348509908725</v>
       </c>
       <c r="S14">
-        <v>1.822866178918679E-06</v>
+        <v>4.083090693493028E-05</v>
       </c>
       <c r="T14">
-        <v>1.822866178918679E-06</v>
+        <v>3.162049938628977E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.496919715195398</v>
+        <v>1.012325</v>
       </c>
       <c r="H15">
-        <v>0.496919715195398</v>
+        <v>3.036975</v>
       </c>
       <c r="I15">
-        <v>0.0005718437599616744</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J15">
-        <v>0.0005718437599616744</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.2567163980931</v>
+        <v>57.33079666666666</v>
       </c>
       <c r="N15">
-        <v>2.2567163980931</v>
+        <v>171.99239</v>
       </c>
       <c r="O15">
-        <v>0.02593237997906638</v>
+        <v>0.6185723365797188</v>
       </c>
       <c r="P15">
-        <v>0.02593237997906638</v>
+        <v>0.6972831345697248</v>
       </c>
       <c r="Q15">
-        <v>1.121406869817208</v>
+        <v>58.03739873558334</v>
       </c>
       <c r="R15">
-        <v>1.121406869817208</v>
+        <v>522.33658862025</v>
       </c>
       <c r="S15">
-        <v>1.482926967198417E-05</v>
+        <v>0.0006660098442419779</v>
       </c>
       <c r="T15">
-        <v>1.482926967198417E-05</v>
+        <v>0.0007736626045808051</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.496919715195398</v>
+        <v>1.012325</v>
       </c>
       <c r="H16">
-        <v>0.496919715195398</v>
+        <v>3.036975</v>
       </c>
       <c r="I16">
-        <v>0.0005718437599616744</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J16">
-        <v>0.0005718437599616744</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>27.8678927244893</v>
+        <v>0.079775</v>
       </c>
       <c r="N16">
-        <v>27.8678927244893</v>
+        <v>0.239325</v>
       </c>
       <c r="O16">
-        <v>0.3202355351155214</v>
+        <v>0.0008607347362981653</v>
       </c>
       <c r="P16">
-        <v>0.3202355351155214</v>
+        <v>0.0009702597084725632</v>
       </c>
       <c r="Q16">
-        <v>13.84810531574913</v>
+        <v>0.08075822687500001</v>
       </c>
       <c r="R16">
-        <v>13.84810531574913</v>
+        <v>0.7268240418750002</v>
       </c>
       <c r="S16">
-        <v>0.0001831246924737986</v>
+        <v>9.267433633151524E-07</v>
       </c>
       <c r="T16">
-        <v>0.0001831246924737986</v>
+        <v>1.076540670440716E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.25870765696297</v>
+        <v>1.012325</v>
       </c>
       <c r="H17">
-        <v>1.25870765696297</v>
+        <v>3.036975</v>
       </c>
       <c r="I17">
-        <v>0.001448491772895792</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J17">
-        <v>0.001448491772895792</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.36022704645594</v>
+        <v>0.3226396666666667</v>
       </c>
       <c r="N17">
-        <v>3.36022704645594</v>
+        <v>0.967919</v>
       </c>
       <c r="O17">
-        <v>0.03861304178861933</v>
+        <v>0.003481130284019571</v>
       </c>
       <c r="P17">
-        <v>0.03861304178861933</v>
+        <v>0.003924089864264305</v>
       </c>
       <c r="Q17">
-        <v>4.229543512508157</v>
+        <v>0.3266162005583333</v>
       </c>
       <c r="R17">
-        <v>4.229543512508157</v>
+        <v>2.939545805025</v>
       </c>
       <c r="S17">
-        <v>5.593067335729652E-05</v>
+        <v>3.74809363617106E-06</v>
       </c>
       <c r="T17">
-        <v>5.593067335729652E-05</v>
+        <v>4.353929464921375E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.25870765696297</v>
+        <v>1.012325</v>
       </c>
       <c r="H18">
-        <v>1.25870765696297</v>
+        <v>3.036975</v>
       </c>
       <c r="I18">
-        <v>0.001448491772895792</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J18">
-        <v>0.001448491772895792</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.2608719277996</v>
+        <v>3.562661333333333</v>
       </c>
       <c r="N18">
-        <v>53.2608719277996</v>
+        <v>10.687984</v>
       </c>
       <c r="O18">
-        <v>0.6120313434223155</v>
+        <v>0.03843944046714304</v>
       </c>
       <c r="P18">
-        <v>0.6120313434223155</v>
+        <v>0.04333070193251612</v>
       </c>
       <c r="Q18">
-        <v>67.03986731204546</v>
+        <v>3.606571134266667</v>
       </c>
       <c r="R18">
-        <v>67.03986731204546</v>
+        <v>32.45914020840001</v>
       </c>
       <c r="S18">
-        <v>0.0008865223657015832</v>
+        <v>4.138731114266598E-05</v>
       </c>
       <c r="T18">
-        <v>0.0008865223657015832</v>
+        <v>4.80770895686604E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.25870765696297</v>
+        <v>1.012325</v>
       </c>
       <c r="H19">
-        <v>1.25870765696297</v>
+        <v>3.036975</v>
       </c>
       <c r="I19">
-        <v>0.001448491772895792</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J19">
-        <v>0.001448491772895792</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.277403546397621</v>
+        <v>27.871807</v>
       </c>
       <c r="N19">
-        <v>0.277403546397621</v>
+        <v>55.743614</v>
       </c>
       <c r="O19">
-        <v>0.003187699694477473</v>
+        <v>0.3007236909846238</v>
       </c>
       <c r="P19">
-        <v>0.003187699694477473</v>
+        <v>0.2259930331927174</v>
       </c>
       <c r="Q19">
-        <v>0.3491699679193681</v>
+        <v>28.21532702127501</v>
       </c>
       <c r="R19">
-        <v>0.3491699679193681</v>
+        <v>169.29196212765</v>
       </c>
       <c r="S19">
-        <v>4.61735678191305E-06</v>
+        <v>0.0003237857995719312</v>
       </c>
       <c r="T19">
-        <v>4.61735678191305E-06</v>
+        <v>0.0002507480103973614</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.25870765696297</v>
+        <v>1.320133</v>
       </c>
       <c r="H20">
-        <v>1.25870765696297</v>
+        <v>3.960399</v>
       </c>
       <c r="I20">
-        <v>0.001448491772895792</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J20">
-        <v>0.001448491772895792</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.2567163980931</v>
+        <v>3.5147655</v>
       </c>
       <c r="N20">
-        <v>2.2567163980931</v>
+        <v>7.029531</v>
       </c>
       <c r="O20">
-        <v>0.02593237997906638</v>
+        <v>0.03792266694819667</v>
       </c>
       <c r="P20">
-        <v>0.02593237997906638</v>
+        <v>0.0284987807323048</v>
       </c>
       <c r="Q20">
-        <v>2.840546209873679</v>
+        <v>4.6399579238115</v>
       </c>
       <c r="R20">
-        <v>2.840546209873679</v>
+        <v>27.839747542869</v>
       </c>
       <c r="S20">
-        <v>3.756283905128521E-05</v>
+        <v>5.324597107127683E-05</v>
       </c>
       <c r="T20">
-        <v>3.756283905128521E-05</v>
+        <v>4.123504281364272E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.25870765696297</v>
+        <v>1.320133</v>
       </c>
       <c r="H21">
-        <v>1.25870765696297</v>
+        <v>3.960399</v>
       </c>
       <c r="I21">
-        <v>0.001448491772895792</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J21">
-        <v>0.001448491772895792</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>27.8678927244893</v>
+        <v>57.33079666666666</v>
       </c>
       <c r="N21">
-        <v>27.8678927244893</v>
+        <v>171.99239</v>
       </c>
       <c r="O21">
-        <v>0.3202355351155214</v>
+        <v>0.6185723365797188</v>
       </c>
       <c r="P21">
-        <v>0.3202355351155214</v>
+        <v>0.6972831345697248</v>
       </c>
       <c r="Q21">
-        <v>35.07752995573733</v>
+        <v>75.68427659595666</v>
       </c>
       <c r="R21">
-        <v>35.07752995573733</v>
+        <v>681.15848936361</v>
       </c>
       <c r="S21">
-        <v>0.0004638585380037144</v>
+        <v>0.0008685171004457017</v>
       </c>
       <c r="T21">
-        <v>0.0004638585380037144</v>
+        <v>0.001008902808063687</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>21.4059925611064</v>
+        <v>1.320133</v>
       </c>
       <c r="H22">
-        <v>21.4059925611064</v>
+        <v>3.960399</v>
       </c>
       <c r="I22">
-        <v>0.02463352307734737</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J22">
-        <v>0.02463352307734737</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>3.36022704645594</v>
+        <v>0.079775</v>
       </c>
       <c r="N22">
-        <v>3.36022704645594</v>
+        <v>0.239325</v>
       </c>
       <c r="O22">
-        <v>0.03861304178861933</v>
+        <v>0.0008607347362981653</v>
       </c>
       <c r="P22">
-        <v>0.03861304178861933</v>
+        <v>0.0009702597084725632</v>
       </c>
       <c r="Q22">
-        <v>71.92899516006439</v>
+        <v>0.105313610075</v>
       </c>
       <c r="R22">
-        <v>71.92899516006439</v>
+        <v>0.947822490675</v>
       </c>
       <c r="S22">
-        <v>0.0009511752559865325</v>
+        <v>1.208529371934233E-06</v>
       </c>
       <c r="T22">
-        <v>0.0009511752559865325</v>
+        <v>1.403874116406207E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>21.4059925611064</v>
+        <v>1.320133</v>
       </c>
       <c r="H23">
-        <v>21.4059925611064</v>
+        <v>3.960399</v>
       </c>
       <c r="I23">
-        <v>0.02463352307734737</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J23">
-        <v>0.02463352307734737</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>53.2608719277996</v>
+        <v>0.3226396666666667</v>
       </c>
       <c r="N23">
-        <v>53.2608719277996</v>
+        <v>0.967919</v>
       </c>
       <c r="O23">
-        <v>0.6120313434223155</v>
+        <v>0.003481130284019571</v>
       </c>
       <c r="P23">
-        <v>0.6120313434223155</v>
+        <v>0.003924089864264305</v>
       </c>
       <c r="Q23">
-        <v>1140.101828284519</v>
+        <v>0.4259272710756666</v>
       </c>
       <c r="R23">
-        <v>1140.101828284519</v>
+        <v>3.833345439681</v>
       </c>
       <c r="S23">
-        <v>0.01507648822225352</v>
+        <v>4.887740692168434E-06</v>
       </c>
       <c r="T23">
-        <v>0.01507648822225352</v>
+        <v>5.67778723859931E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>21.4059925611064</v>
+        <v>1.320133</v>
       </c>
       <c r="H24">
-        <v>21.4059925611064</v>
+        <v>3.960399</v>
       </c>
       <c r="I24">
-        <v>0.02463352307734737</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J24">
-        <v>0.02463352307734737</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.277403546397621</v>
+        <v>3.562661333333333</v>
       </c>
       <c r="N24">
-        <v>0.277403546397621</v>
+        <v>10.687984</v>
       </c>
       <c r="O24">
-        <v>0.003187699694477473</v>
+        <v>0.03843944046714304</v>
       </c>
       <c r="P24">
-        <v>0.003187699694477473</v>
+        <v>0.04333070193251612</v>
       </c>
       <c r="Q24">
-        <v>5.938098250612009</v>
+        <v>4.703186793957333</v>
       </c>
       <c r="R24">
-        <v>5.938098250612009</v>
+        <v>42.328681145616</v>
       </c>
       <c r="S24">
-        <v>7.852427398756397E-05</v>
+        <v>5.397155579552126E-05</v>
       </c>
       <c r="T24">
-        <v>7.852427398756397E-05</v>
+        <v>6.269543129285985E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>21.4059925611064</v>
+        <v>1.320133</v>
       </c>
       <c r="H25">
-        <v>21.4059925611064</v>
+        <v>3.960399</v>
       </c>
       <c r="I25">
-        <v>0.02463352307734737</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J25">
-        <v>0.02463352307734737</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.2567163980931</v>
+        <v>27.871807</v>
       </c>
       <c r="N25">
-        <v>2.2567163980931</v>
+        <v>55.743614</v>
       </c>
       <c r="O25">
-        <v>0.02593237997906638</v>
+        <v>0.3007236909846238</v>
       </c>
       <c r="P25">
-        <v>0.02593237997906638</v>
+        <v>0.2259930331927174</v>
       </c>
       <c r="Q25">
-        <v>48.30725443010773</v>
+        <v>36.794492190331</v>
       </c>
       <c r="R25">
-        <v>48.30725443010773</v>
+        <v>220.766953141986</v>
       </c>
       <c r="S25">
-        <v>0.0006388058806648725</v>
+        <v>0.0004222362570778082</v>
       </c>
       <c r="T25">
-        <v>0.0006388058806648725</v>
+        <v>0.0003269905645024076</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>21.4059925611064</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H26">
-        <v>21.4059925611064</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I26">
-        <v>0.02463352307734737</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J26">
-        <v>0.02463352307734737</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>27.8678927244893</v>
+        <v>3.5147655</v>
       </c>
       <c r="N26">
-        <v>27.8678927244893</v>
+        <v>7.029531</v>
       </c>
       <c r="O26">
-        <v>0.3202355351155214</v>
+        <v>0.03792266694819667</v>
       </c>
       <c r="P26">
-        <v>0.3202355351155214</v>
+        <v>0.0284987807323048</v>
       </c>
       <c r="Q26">
-        <v>596.5399043541292</v>
+        <v>85.125537325647</v>
       </c>
       <c r="R26">
-        <v>596.5399043541292</v>
+        <v>510.753223953882</v>
       </c>
       <c r="S26">
-        <v>0.007888529444454881</v>
+        <v>0.0009768605604390894</v>
       </c>
       <c r="T26">
-        <v>0.007888529444454881</v>
+        <v>0.0007565058204825214</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>55.9859543366913</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H27">
-        <v>55.9859543366913</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I27">
-        <v>0.06442734641821805</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J27">
-        <v>0.06442734641821805</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>3.36022704645594</v>
+        <v>57.33079666666666</v>
       </c>
       <c r="N27">
-        <v>3.36022704645594</v>
+        <v>171.99239</v>
       </c>
       <c r="O27">
-        <v>0.03861304178861933</v>
+        <v>0.6185723365797188</v>
       </c>
       <c r="P27">
-        <v>0.03861304178861933</v>
+        <v>0.6972831345697248</v>
       </c>
       <c r="Q27">
-        <v>188.1255179837973</v>
+        <v>1388.517917214509</v>
       </c>
       <c r="R27">
-        <v>188.1255179837973</v>
+        <v>12496.66125493058</v>
       </c>
       <c r="S27">
-        <v>0.002487735819576508</v>
+        <v>0.01593397743383434</v>
       </c>
       <c r="T27">
-        <v>0.002487735819576508</v>
+        <v>0.01850951992582433</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>55.9859543366913</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H28">
-        <v>55.9859543366913</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I28">
-        <v>0.06442734641821805</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J28">
-        <v>0.06442734641821805</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>53.2608719277996</v>
+        <v>0.079775</v>
       </c>
       <c r="N28">
-        <v>53.2608719277996</v>
+        <v>0.239325</v>
       </c>
       <c r="O28">
-        <v>0.6120313434223155</v>
+        <v>0.0008607347362981653</v>
       </c>
       <c r="P28">
-        <v>0.6120313434223155</v>
+        <v>0.0009702597084725632</v>
       </c>
       <c r="Q28">
-        <v>2981.860743682152</v>
+        <v>1.932103220016667</v>
       </c>
       <c r="R28">
-        <v>2981.860743682152</v>
+        <v>17.38892898015</v>
       </c>
       <c r="S28">
-        <v>0.0394315553814769</v>
+        <v>2.217190626487837E-05</v>
       </c>
       <c r="T28">
-        <v>0.0394315553814769</v>
+        <v>2.575573754308494E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>55.9859543366913</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H29">
-        <v>55.9859543366913</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I29">
-        <v>0.06442734641821805</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J29">
-        <v>0.06442734641821805</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.277403546397621</v>
+        <v>0.3226396666666667</v>
       </c>
       <c r="N29">
-        <v>0.277403546397621</v>
+        <v>0.967919</v>
       </c>
       <c r="O29">
-        <v>0.003187699694477473</v>
+        <v>0.003481130284019571</v>
       </c>
       <c r="P29">
-        <v>0.003187699694477473</v>
+        <v>0.003924089864264305</v>
       </c>
       <c r="Q29">
-        <v>15.53070228145343</v>
+        <v>7.814141508890889</v>
       </c>
       <c r="R29">
-        <v>15.53070228145343</v>
+        <v>70.32727358001799</v>
       </c>
       <c r="S29">
-        <v>0.000205375032493348</v>
+        <v>8.967140641385066E-05</v>
       </c>
       <c r="T29">
-        <v>0.000205375032493348</v>
+        <v>0.0001041657483629593</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>55.9859543366913</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H30">
-        <v>55.9859543366913</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I30">
-        <v>0.06442734641821805</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J30">
-        <v>0.06442734641821805</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.2567163980931</v>
+        <v>3.562661333333333</v>
       </c>
       <c r="N30">
-        <v>2.2567163980931</v>
+        <v>10.687984</v>
       </c>
       <c r="O30">
-        <v>0.02593237997906638</v>
+        <v>0.03843944046714304</v>
       </c>
       <c r="P30">
-        <v>0.02593237997906638</v>
+        <v>0.04333070193251612</v>
       </c>
       <c r="Q30">
-        <v>126.3444212145028</v>
+        <v>86.28554602271645</v>
       </c>
       <c r="R30">
-        <v>126.3444212145028</v>
+        <v>776.569914204448</v>
       </c>
       <c r="S30">
-        <v>0.001670754428360172</v>
+        <v>0.0009901722737220089</v>
       </c>
       <c r="T30">
-        <v>0.001670754428360172</v>
+        <v>0.001150222127937705</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>55.9859543366913</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H31">
-        <v>55.9859543366913</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I31">
-        <v>0.06442734641821805</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J31">
-        <v>0.06442734641821805</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>27.8678927244893</v>
+        <v>27.871807</v>
       </c>
       <c r="N31">
-        <v>27.8678927244893</v>
+        <v>55.743614</v>
       </c>
       <c r="O31">
-        <v>0.3202355351155214</v>
+        <v>0.3007236909846238</v>
       </c>
       <c r="P31">
-        <v>0.3202355351155214</v>
+        <v>0.2259930331927174</v>
       </c>
       <c r="Q31">
-        <v>1560.21056953307</v>
+        <v>675.0386468490514</v>
       </c>
       <c r="R31">
-        <v>1560.21056953307</v>
+        <v>4050.231881094308</v>
       </c>
       <c r="S31">
-        <v>0.02063192575631113</v>
+        <v>0.007746425474607094</v>
       </c>
       <c r="T31">
-        <v>0.02063192575631113</v>
+        <v>0.005999030155174075</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>55.986019</v>
+      </c>
+      <c r="H32">
+        <v>111.972038</v>
+      </c>
+      <c r="I32">
+        <v>0.05954561425747298</v>
+      </c>
+      <c r="J32">
+        <v>0.04090824144922671</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3.5147655</v>
+      </c>
+      <c r="N32">
+        <v>7.029531</v>
+      </c>
+      <c r="O32">
+        <v>0.03792266694819667</v>
+      </c>
+      <c r="P32">
+        <v>0.0284987807323048</v>
+      </c>
+      <c r="Q32">
+        <v>196.7777280635445</v>
+      </c>
+      <c r="R32">
+        <v>787.1109122541781</v>
+      </c>
+      <c r="S32">
+        <v>0.002258128497711939</v>
+      </c>
+      <c r="T32">
+        <v>0.001165835003205695</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>55.986019</v>
+      </c>
+      <c r="H33">
+        <v>111.972038</v>
+      </c>
+      <c r="I33">
+        <v>0.05954561425747298</v>
+      </c>
+      <c r="J33">
+        <v>0.04090824144922671</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>57.33079666666666</v>
+      </c>
+      <c r="N33">
+        <v>171.99239</v>
+      </c>
+      <c r="O33">
+        <v>0.6185723365797188</v>
+      </c>
+      <c r="P33">
+        <v>0.6972831345697248</v>
+      </c>
+      <c r="Q33">
+        <v>3209.723071465136</v>
+      </c>
+      <c r="R33">
+        <v>19258.33842879082</v>
+      </c>
+      <c r="S33">
+        <v>0.03683326974431968</v>
+      </c>
+      <c r="T33">
+        <v>0.02852462682745194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>55.986019</v>
+      </c>
+      <c r="H34">
+        <v>111.972038</v>
+      </c>
+      <c r="I34">
+        <v>0.05954561425747298</v>
+      </c>
+      <c r="J34">
+        <v>0.04090824144922671</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.079775</v>
+      </c>
+      <c r="N34">
+        <v>0.239325</v>
+      </c>
+      <c r="O34">
+        <v>0.0008607347362981653</v>
+      </c>
+      <c r="P34">
+        <v>0.0009702597084725632</v>
+      </c>
+      <c r="Q34">
+        <v>4.466284665724999</v>
+      </c>
+      <c r="R34">
+        <v>26.79770799435</v>
+      </c>
+      <c r="S34">
+        <v>5.125297858561828E-05</v>
+      </c>
+      <c r="T34">
+        <v>3.969161842265193E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>55.986019</v>
+      </c>
+      <c r="H35">
+        <v>111.972038</v>
+      </c>
+      <c r="I35">
+        <v>0.05954561425747298</v>
+      </c>
+      <c r="J35">
+        <v>0.04090824144922671</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.3226396666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.967919</v>
+      </c>
+      <c r="O35">
+        <v>0.003481130284019571</v>
+      </c>
+      <c r="P35">
+        <v>0.003924089864264305</v>
+      </c>
+      <c r="Q35">
+        <v>18.06331050815367</v>
+      </c>
+      <c r="R35">
+        <v>108.379863048922</v>
+      </c>
+      <c r="S35">
+        <v>0.0002072860410722367</v>
+      </c>
+      <c r="T35">
+        <v>0.0001605276156357875</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>55.986019</v>
+      </c>
+      <c r="H36">
+        <v>111.972038</v>
+      </c>
+      <c r="I36">
+        <v>0.05954561425747298</v>
+      </c>
+      <c r="J36">
+        <v>0.04090824144922671</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>3.562661333333333</v>
+      </c>
+      <c r="N36">
+        <v>10.687984</v>
+      </c>
+      <c r="O36">
+        <v>0.03843944046714304</v>
+      </c>
+      <c r="P36">
+        <v>0.04333070193251612</v>
+      </c>
+      <c r="Q36">
+        <v>199.4592250985653</v>
+      </c>
+      <c r="R36">
+        <v>1196.755350591392</v>
+      </c>
+      <c r="S36">
+        <v>0.002288900094329597</v>
+      </c>
+      <c r="T36">
+        <v>0.001772582816819844</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>55.986019</v>
+      </c>
+      <c r="H37">
+        <v>111.972038</v>
+      </c>
+      <c r="I37">
+        <v>0.05954561425747298</v>
+      </c>
+      <c r="J37">
+        <v>0.04090824144922671</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>27.871807</v>
+      </c>
+      <c r="N37">
+        <v>55.743614</v>
+      </c>
+      <c r="O37">
+        <v>0.3007236909846238</v>
+      </c>
+      <c r="P37">
+        <v>0.2259930331927174</v>
+      </c>
+      <c r="Q37">
+        <v>1560.431516266333</v>
+      </c>
+      <c r="R37">
+        <v>6241.726065065332</v>
+      </c>
+      <c r="S37">
+        <v>0.01790677690145391</v>
+      </c>
+      <c r="T37">
+        <v>0.00924497756769079</v>
       </c>
     </row>
   </sheetData>
